--- a/Template/Export/Sari_R2_11.xlsx
+++ b/Template/Export/Sari_R2_11.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$P$62</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -358,9 +358,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.3342252999086938E-2"/>
+          <c:x val="7.1711943010567991E-2"/>
           <c:y val="0.13921442201858764"/>
-          <c:w val="0.92981886449038886"/>
+          <c:w val="0.91144917447890783"/>
           <c:h val="0.66040653106947245"/>
         </c:manualLayout>
       </c:layout>
@@ -402,8 +402,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1529969600"/>
-        <c:axId val="1526982976"/>
+        <c:axId val="-1315959216"/>
+        <c:axId val="-1317295856"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -608,7 +608,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1529969600"/>
+        <c:axId val="-1315959216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -649,7 +649,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1526982976"/>
+        <c:crossAx val="-1317295856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -657,7 +657,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1526982976"/>
+        <c:axId val="-1317295856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -676,16 +676,24 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.7477391962055261E-3"/>
+              <c:y val="0.36123717785897108"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1529969600"/>
+        <c:crossAx val="-1315959216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/Template/Export/Sari_R2_11.xlsx
+++ b/Template/Export/Sari_R2_11.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$P$62</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -319,7 +319,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -392,6 +392,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF41-4F9E-AB64-DE0FC569CE33}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -602,6 +607,11 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-BF41-4F9E-AB64-DE0FC569CE33}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
             </c15:filteredBarSeries>
           </c:ext>
@@ -1044,13 +1054,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O60"/>
+  <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="20" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" style="20" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
